--- a/cbrunner/Parameters/Parameters_Costs_BC.xlsx
+++ b/cbrunner/Parameters/Parameters_Costs_BC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F70B4D7-1DFB-48AE-8B15-7B4A09DEAEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BB9E99-AE28-4955-AC5A-1FDD82565D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,7 +189,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-45: Lorraine</t>
+45: Lorraine
+42.37 (Frozen Eligibility assessment in 2020 for looper) (Brian Watson and Marnie Duffy-Holt)</t>
         </r>
       </text>
     </comment>
@@ -312,9 +313,6 @@
     <t>Cost Knockdown (CDN$/ha)</t>
   </si>
   <si>
-    <t>Cost BTK Spray (CDN$/ha)</t>
-  </si>
-  <si>
     <t>Cost Survey (CDN$/ha)</t>
   </si>
   <si>
@@ -382,6 +380,9 @@
   </si>
   <si>
     <t>Cost PAS Deactivation (CDN$/ha)</t>
+  </si>
+  <si>
+    <t>Cost Aerial Spray (CDN$/ha)</t>
   </si>
 </sst>
 </file>
@@ -873,7 +874,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,16 +934,16 @@
         <v>3</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>18</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>19</v>
@@ -951,16 +952,16 @@
         <v>20</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -43967,12 +43968,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>0.35</v>
@@ -43980,7 +43981,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>0.55000000000000004</v>
@@ -43988,7 +43989,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <f>SUM(B2:B3)</f>
@@ -43997,7 +43998,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -44005,7 +44006,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>45</v>
@@ -44013,7 +44014,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <f>B5*B6</f>
@@ -44022,7 +44023,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <f>B7</f>
@@ -44031,7 +44032,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -44042,7 +44043,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <f>B9*B4</f>
@@ -44051,7 +44052,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <f>B8</f>
@@ -44060,7 +44061,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <f>SUM(B10:B11)</f>
@@ -44069,7 +44070,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>0.14499999999999999</v>
@@ -44077,7 +44078,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <f>B13*B12</f>
@@ -44086,7 +44087,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <f>B14+B12</f>
@@ -44099,7 +44100,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>500</v>
@@ -44107,7 +44108,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
